--- a/Thời gian thao tác.xlsx
+++ b/Thời gian thao tác.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="495" windowWidth="27960" windowHeight="17505" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="840" yWindow="495" windowWidth="27960" windowHeight="17505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="145">
   <si>
     <t>-</t>
   </si>
@@ -466,9 +466,6 @@
     <t>Mục Tiêu</t>
   </si>
   <si>
-    <t>Ghi chép và tổng hợp ký lục</t>
-  </si>
-  <si>
     <t>Trước cải thiện
 (AVE: 8~10/2024)</t>
   </si>
@@ -476,10 +473,16 @@
     <t>Tìm thiết bị MPB</t>
   </si>
   <si>
-    <t>Đổi thiết bị MPB</t>
-  </si>
-  <si>
     <t>Tổng số thiết bị MPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di chuyển xe </t>
+  </si>
+  <si>
+    <t>Ghi chép lịch sử chuyển đổi thiết bị MPB, tổng hợp ký lục cuối ca</t>
+  </si>
+  <si>
+    <t>Chuyển đổi thiết bị MPB, kết nối nguồn điện</t>
   </si>
 </sst>
 </file>
@@ -1106,69 +1109,69 @@
                 <c:ptCount val="19"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Apr</c:v>
+                    <c:v>4月</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>May</c:v>
+                    <c:v>5月</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Jun</c:v>
+                    <c:v>6月</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Jul</c:v>
+                    <c:v>7月</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Aug</c:v>
+                    <c:v>8月</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Sep</c:v>
+                    <c:v>9月</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Oct</c:v>
+                    <c:v>10月</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Nov</c:v>
+                    <c:v>11月</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Dec</c:v>
+                    <c:v>12月</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Jan</c:v>
+                    <c:v>1月</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Feb</c:v>
+                    <c:v>2月</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Mar</c:v>
+                    <c:v>3月</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Apr</c:v>
+                    <c:v>4月</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>May</c:v>
+                    <c:v>5月</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Jun</c:v>
+                    <c:v>6月</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Jul</c:v>
+                    <c:v>7月</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Aug</c:v>
+                    <c:v>8月</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Sep</c:v>
+                    <c:v>9月</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Oct</c:v>
+                    <c:v>10月</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2023</c:v>
+                    <c:v>2024</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>2024</c:v>
+                    <c:v>2025</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1277,69 +1280,69 @@
                 <c:ptCount val="19"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Apr</c:v>
+                    <c:v>4月</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>May</c:v>
+                    <c:v>5月</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Jun</c:v>
+                    <c:v>6月</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Jul</c:v>
+                    <c:v>7月</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Aug</c:v>
+                    <c:v>8月</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Sep</c:v>
+                    <c:v>9月</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Oct</c:v>
+                    <c:v>10月</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Nov</c:v>
+                    <c:v>11月</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Dec</c:v>
+                    <c:v>12月</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Jan</c:v>
+                    <c:v>1月</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Feb</c:v>
+                    <c:v>2月</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Mar</c:v>
+                    <c:v>3月</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Apr</c:v>
+                    <c:v>4月</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>May</c:v>
+                    <c:v>5月</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Jun</c:v>
+                    <c:v>6月</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Jul</c:v>
+                    <c:v>7月</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Aug</c:v>
+                    <c:v>8月</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Sep</c:v>
+                    <c:v>9月</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Oct</c:v>
+                    <c:v>10月</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2023</c:v>
+                    <c:v>2024</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>2024</c:v>
+                    <c:v>2025</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1404,69 +1407,69 @@
                 <c:ptCount val="19"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Apr</c:v>
+                    <c:v>4月</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>May</c:v>
+                    <c:v>5月</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Jun</c:v>
+                    <c:v>6月</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Jul</c:v>
+                    <c:v>7月</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Aug</c:v>
+                    <c:v>8月</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Sep</c:v>
+                    <c:v>9月</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Oct</c:v>
+                    <c:v>10月</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Nov</c:v>
+                    <c:v>11月</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Dec</c:v>
+                    <c:v>12月</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Jan</c:v>
+                    <c:v>1月</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Feb</c:v>
+                    <c:v>2月</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Mar</c:v>
+                    <c:v>3月</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Apr</c:v>
+                    <c:v>4月</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>May</c:v>
+                    <c:v>5月</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Jun</c:v>
+                    <c:v>6月</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Jul</c:v>
+                    <c:v>7月</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Aug</c:v>
+                    <c:v>8月</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Sep</c:v>
+                    <c:v>9月</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Oct</c:v>
+                    <c:v>10月</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2023</c:v>
+                    <c:v>2024</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>2024</c:v>
+                    <c:v>2025</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1896,6 +1899,7 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3207,13 +3211,13 @@
                   <c:v>Tìm thiết bị MPB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ghi chép và tổng hợp ký lục</c:v>
+                  <c:v>Ghi chép lịch sử chuyển đổi thiết bị MPB, tổng hợp ký lục cuối ca</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Đổi thiết bị MPB</c:v>
+                  <c:v>Chuyển đổi thiết bị MPB, kết nối nguồn điện</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Di chuyển xe</c:v>
+                  <c:v>Di chuyển xe </c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Khác</c:v>
@@ -3284,13 +3288,13 @@
                   <c:v>Tìm thiết bị MPB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ghi chép và tổng hợp ký lục</c:v>
+                  <c:v>Ghi chép lịch sử chuyển đổi thiết bị MPB, tổng hợp ký lục cuối ca</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Đổi thiết bị MPB</c:v>
+                  <c:v>Chuyển đổi thiết bị MPB, kết nối nguồn điện</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Di chuyển xe</c:v>
+                  <c:v>Di chuyển xe </c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Khác</c:v>
@@ -3372,13 +3376,13 @@
                   <c:v>Tìm thiết bị MPB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Ghi chép và tổng hợp ký lục</c:v>
+                  <c:v>Ghi chép lịch sử chuyển đổi thiết bị MPB, tổng hợp ký lục cuối ca</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Đổi thiết bị MPB</c:v>
+                  <c:v>Chuyển đổi thiết bị MPB, kết nối nguồn điện</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Di chuyển xe</c:v>
+                  <c:v>Di chuyển xe </c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Khác</c:v>
@@ -8249,7 +8253,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>282575</xdr:colOff>
+      <xdr:colOff>717177</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>173181</xdr:rowOff>
     </xdr:to>
@@ -8296,7 +8300,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9786301" y="91786"/>
+          <a:off x="12408477" y="91786"/>
           <a:ext cx="4572000" cy="3471582"/>
           <a:chOff x="9793432" y="91786"/>
           <a:chExt cx="4572000" cy="3470564"/>
@@ -9855,6 +9859,464 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>353385</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121104</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="Group 31"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5116286" y="762000"/>
+          <a:ext cx="962985" cy="692604"/>
+          <a:chOff x="3626543" y="664030"/>
+          <a:chExt cx="962985" cy="692604"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="Rectangle 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3684815" y="1017815"/>
+            <a:ext cx="854529" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Rectangle 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3684815" y="843645"/>
+            <a:ext cx="854529" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Rectangle 40"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3684815" y="664030"/>
+            <a:ext cx="854529" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="Flowchart: Connector 41"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3626543" y="1194710"/>
+            <a:ext cx="165331" cy="161924"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="Flowchart: Connector 42"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4430413" y="1185185"/>
+            <a:ext cx="159115" cy="161924"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="Parallelogram 43"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3732719" y="1058730"/>
+            <a:ext cx="746660" cy="95908"/>
+          </a:xfrm>
+          <a:prstGeom prst="parallelogram">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="Parallelogram 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3734034" y="876112"/>
+            <a:ext cx="746660" cy="141703"/>
+          </a:xfrm>
+          <a:prstGeom prst="parallelogram">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="800" b="1"/>
+              <a:t>MPB-002</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="Parallelogram 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3741921" y="700065"/>
+            <a:ext cx="746660" cy="95908"/>
+          </a:xfrm>
+          <a:prstGeom prst="parallelogram">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="Flowchart: Connector 46"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4487266" y="1226655"/>
+            <a:ext cx="56581" cy="78828"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="Flowchart: Connector 47"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3675370" y="1233674"/>
+            <a:ext cx="60289" cy="78828"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10121,10 +10583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U17"/>
+  <dimension ref="B1:Z17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10132,7 +10594,7 @@
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C1" s="63">
         <v>2023</v>
       </c>
@@ -10153,7 +10615,7 @@
       <c r="P1" s="63"/>
       <c r="Q1" s="63"/>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>4</v>
       </c>
@@ -10209,7 +10671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>123</v>
       </c>
@@ -10268,7 +10730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C4">
         <f>B3+C3</f>
         <v>126</v>
@@ -10342,15 +10804,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C6">
         <f>9.7/60</f>
         <v>0.16166666666666665</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C9" s="64">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D9" s="65"/>
       <c r="E9" s="65"/>
@@ -10364,77 +10826,97 @@
       <c r="M9" s="65"/>
       <c r="N9" s="66"/>
       <c r="O9" s="64">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="P9" s="65"/>
       <c r="Q9" s="65"/>
       <c r="R9" s="65"/>
       <c r="S9" s="65"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="66"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C10" s="42" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="I10" s="42" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="N10" s="42" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="O10" s="42" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="P10" s="42" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="42" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="R10" s="42" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="S10" s="42" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="T10" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="U10" s="62" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="U10" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="W10" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="42" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11">
         <v>126</v>
@@ -10494,7 +10976,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>69</v>
       </c>
@@ -10553,7 +11035,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>84</v>
       </c>
@@ -10623,7 +11105,7 @@
     <mergeCell ref="C1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="C9:N9"/>
-    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="O9:Z9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10634,7 +11116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:U13"/>
     </sheetView>
   </sheetViews>
@@ -12087,13 +12569,13 @@
   <dimension ref="B3:M36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
@@ -12113,7 +12595,7 @@
         <v>98</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J3">
         <v>60.6</v>
@@ -12135,7 +12617,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="48">
         <v>26.2</v>
@@ -12157,7 +12639,7 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="48" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D6" s="18">
         <v>15.899999999999999</v>
@@ -12174,7 +12656,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="48" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
@@ -12190,7 +12672,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="48" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="D8" s="48">
         <v>7.5</v>
@@ -12243,8 +12725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
